--- a/data/pca/factorExposure/factorExposure_2015-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01935333147257622</v>
+        <v>0.01144836201650495</v>
       </c>
       <c r="C2">
-        <v>-0.03849359357475479</v>
+        <v>-0.05462066278069649</v>
       </c>
       <c r="D2">
-        <v>-0.1151394124669131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0816581547286892</v>
+      </c>
+      <c r="E2">
+        <v>0.07920729540924974</v>
+      </c>
+      <c r="F2">
+        <v>0.03786715245207602</v>
+      </c>
+      <c r="G2">
+        <v>0.154660344578428</v>
+      </c>
+      <c r="H2">
+        <v>-0.03669413330761268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04615793892310762</v>
+        <v>0.01993850401987831</v>
       </c>
       <c r="C4">
-        <v>-0.08071691040180837</v>
+        <v>-0.1158381867478685</v>
       </c>
       <c r="D4">
-        <v>-0.07959817403069129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08669742456882669</v>
+      </c>
+      <c r="E4">
+        <v>0.0909584303386308</v>
+      </c>
+      <c r="F4">
+        <v>0.09831203225221301</v>
+      </c>
+      <c r="G4">
+        <v>0.008232445341468926</v>
+      </c>
+      <c r="H4">
+        <v>0.06698125506839518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03027642562315</v>
+        <v>0.03491578080318208</v>
       </c>
       <c r="C6">
-        <v>-0.01949060008108124</v>
+        <v>-0.03936393310036044</v>
       </c>
       <c r="D6">
-        <v>-0.08886266272860266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0689184219280697</v>
+      </c>
+      <c r="E6">
+        <v>0.110281516584112</v>
+      </c>
+      <c r="F6">
+        <v>0.04732353482642594</v>
+      </c>
+      <c r="G6">
+        <v>-0.008882125802431473</v>
+      </c>
+      <c r="H6">
+        <v>-0.01740823449729453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002809994695605041</v>
+        <v>0.005883924265117382</v>
       </c>
       <c r="C7">
-        <v>-0.03348269509185841</v>
+        <v>-0.0458283611201725</v>
       </c>
       <c r="D7">
-        <v>-0.07362560627388184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05049512792747254</v>
+      </c>
+      <c r="E7">
+        <v>0.09379331122330632</v>
+      </c>
+      <c r="F7">
+        <v>0.01332398254469075</v>
+      </c>
+      <c r="G7">
+        <v>-0.004872271347631647</v>
+      </c>
+      <c r="H7">
+        <v>0.02850239533798738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0001961144728077198</v>
+        <v>-0.005353456921175803</v>
       </c>
       <c r="C8">
-        <v>-0.03098871690020469</v>
+        <v>-0.03905253262296313</v>
       </c>
       <c r="D8">
-        <v>-0.06555629370755958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04263796003145176</v>
+      </c>
+      <c r="E8">
+        <v>0.06937821717895694</v>
+      </c>
+      <c r="F8">
+        <v>0.05722838364384716</v>
+      </c>
+      <c r="G8">
+        <v>0.06628114068939948</v>
+      </c>
+      <c r="H8">
+        <v>0.04647383542612713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03438934370418952</v>
+        <v>0.01345665870495139</v>
       </c>
       <c r="C9">
-        <v>-0.0710242749476943</v>
+        <v>-0.09592829251244921</v>
       </c>
       <c r="D9">
-        <v>-0.08562989362621368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07624614485067491</v>
+      </c>
+      <c r="E9">
+        <v>0.07951142240066031</v>
+      </c>
+      <c r="F9">
+        <v>0.07047990448907569</v>
+      </c>
+      <c r="G9">
+        <v>-0.0013242417655817</v>
+      </c>
+      <c r="H9">
+        <v>0.01986491266143537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1955991628481414</v>
+        <v>0.244184394490974</v>
       </c>
       <c r="C10">
-        <v>0.1560836034191131</v>
+        <v>0.09159539937747369</v>
       </c>
       <c r="D10">
-        <v>0.04907299722894021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007683973169308152</v>
+      </c>
+      <c r="E10">
+        <v>-0.0304097556882406</v>
+      </c>
+      <c r="F10">
+        <v>0.03904790821684694</v>
+      </c>
+      <c r="G10">
+        <v>-0.01175809836947752</v>
+      </c>
+      <c r="H10">
+        <v>0.002655620744547892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01173123803261212</v>
+        <v>0.009649189953255834</v>
       </c>
       <c r="C11">
-        <v>-0.04149889887692346</v>
+        <v>-0.0604610645387302</v>
       </c>
       <c r="D11">
-        <v>-0.04210479914566106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02719559100163258</v>
+      </c>
+      <c r="E11">
+        <v>0.05432341146091518</v>
+      </c>
+      <c r="F11">
+        <v>-0.001349831315163966</v>
+      </c>
+      <c r="G11">
+        <v>-0.009314683072083996</v>
+      </c>
+      <c r="H11">
+        <v>0.01167048838439314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01091394855630095</v>
+        <v>0.01021350933497179</v>
       </c>
       <c r="C12">
-        <v>-0.04339486227750237</v>
+        <v>-0.05132385810576208</v>
       </c>
       <c r="D12">
-        <v>-0.04988741079815831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03275470699345415</v>
+      </c>
+      <c r="E12">
+        <v>0.04549902140943558</v>
+      </c>
+      <c r="F12">
+        <v>-0.004726192431483585</v>
+      </c>
+      <c r="G12">
+        <v>-0.007459478821186944</v>
+      </c>
+      <c r="H12">
+        <v>-0.02073513506230763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01067012330268246</v>
+        <v>0.00467710761046419</v>
       </c>
       <c r="C13">
-        <v>-0.03557829834240973</v>
+        <v>-0.06564671650420689</v>
       </c>
       <c r="D13">
-        <v>-0.1094517876100946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1152325790084844</v>
+      </c>
+      <c r="E13">
+        <v>0.1048643054212952</v>
+      </c>
+      <c r="F13">
+        <v>0.02939638396201479</v>
+      </c>
+      <c r="G13">
+        <v>0.04691759933406474</v>
+      </c>
+      <c r="H13">
+        <v>-0.07918078409850714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01175087784337053</v>
+        <v>0.002351783337671361</v>
       </c>
       <c r="C14">
-        <v>-0.02084960600422342</v>
+        <v>-0.03532209911102464</v>
       </c>
       <c r="D14">
-        <v>-0.05740719235195656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05412472104662024</v>
+      </c>
+      <c r="E14">
+        <v>0.1100842994901671</v>
+      </c>
+      <c r="F14">
+        <v>0.0413271824750576</v>
+      </c>
+      <c r="G14">
+        <v>0.01714642673913005</v>
+      </c>
+      <c r="H14">
+        <v>-0.03510735608823804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003360768270798321</v>
+        <v>-0.004202520395333934</v>
       </c>
       <c r="C15">
-        <v>-0.01288754807969083</v>
+        <v>-0.03128555247041542</v>
       </c>
       <c r="D15">
-        <v>-0.0480770972005559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04872879624477462</v>
+      </c>
+      <c r="E15">
+        <v>0.05897328548879698</v>
+      </c>
+      <c r="F15">
+        <v>0.01401436423516001</v>
+      </c>
+      <c r="G15">
+        <v>0.02092788519653057</v>
+      </c>
+      <c r="H15">
+        <v>0.01193693691077721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01137683628694451</v>
+        <v>0.0090456957155988</v>
       </c>
       <c r="C16">
-        <v>-0.04089862154252778</v>
+        <v>-0.05372903357428695</v>
       </c>
       <c r="D16">
-        <v>-0.0463503876822086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02984057485780186</v>
+      </c>
+      <c r="E16">
+        <v>0.04992431211638887</v>
+      </c>
+      <c r="F16">
+        <v>-0.003838425184724048</v>
+      </c>
+      <c r="G16">
+        <v>-0.02346189580029504</v>
+      </c>
+      <c r="H16">
+        <v>-0.001628635322836739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00227618385120741</v>
+        <v>-0.003316782537555356</v>
       </c>
       <c r="C19">
-        <v>-0.02191964314192891</v>
+        <v>-0.01605436642484698</v>
       </c>
       <c r="D19">
-        <v>-0.04916213396585295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02791958243335534</v>
+      </c>
+      <c r="E19">
+        <v>0.01096232063138389</v>
+      </c>
+      <c r="F19">
+        <v>0.009722422544391571</v>
+      </c>
+      <c r="G19">
+        <v>0.02302047660685603</v>
+      </c>
+      <c r="H19">
+        <v>-0.01394593479147936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0006841286622287175</v>
+        <v>0.004403336168169766</v>
       </c>
       <c r="C20">
-        <v>-0.03084869763979096</v>
+        <v>-0.04779795781518861</v>
       </c>
       <c r="D20">
-        <v>-0.05472544446314644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0570623580139779</v>
+      </c>
+      <c r="E20">
+        <v>0.06735331707382752</v>
+      </c>
+      <c r="F20">
+        <v>0.02501803761284265</v>
+      </c>
+      <c r="G20">
+        <v>-0.02248717881444964</v>
+      </c>
+      <c r="H20">
+        <v>0.02216058653259483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002976343774394858</v>
+        <v>0.002431321853067017</v>
       </c>
       <c r="C21">
-        <v>-0.03382221403950929</v>
+        <v>-0.04855942921004755</v>
       </c>
       <c r="D21">
-        <v>-0.08375989590384356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08654559907299739</v>
+      </c>
+      <c r="E21">
+        <v>0.09192153881433937</v>
+      </c>
+      <c r="F21">
+        <v>0.1066216631439436</v>
+      </c>
+      <c r="G21">
+        <v>0.07164067735746305</v>
+      </c>
+      <c r="H21">
+        <v>-0.0845085566130364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004912516075144312</v>
+        <v>-0.008136189189101724</v>
       </c>
       <c r="C22">
-        <v>-0.05646092535631811</v>
+        <v>-0.08465748694364414</v>
       </c>
       <c r="D22">
-        <v>-0.1972593169904858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1909838707380715</v>
+      </c>
+      <c r="E22">
+        <v>0.1315192123116873</v>
+      </c>
+      <c r="F22">
+        <v>0.05201670949639525</v>
+      </c>
+      <c r="G22">
+        <v>0.2230593710725781</v>
+      </c>
+      <c r="H22">
+        <v>0.1526907826982344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005325673862828619</v>
+        <v>-0.00504229438300666</v>
       </c>
       <c r="C23">
-        <v>-0.05689813458600358</v>
+        <v>-0.08683652314891432</v>
       </c>
       <c r="D23">
-        <v>-0.1963514327352625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1945069321283606</v>
+      </c>
+      <c r="E23">
+        <v>0.1290500472505938</v>
+      </c>
+      <c r="F23">
+        <v>0.05460297397031812</v>
+      </c>
+      <c r="G23">
+        <v>0.2173275687869386</v>
+      </c>
+      <c r="H23">
+        <v>0.1452589494934691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01771004407865815</v>
+        <v>0.0105407061433574</v>
       </c>
       <c r="C24">
-        <v>-0.06123597336244049</v>
+        <v>-0.07098663617196965</v>
       </c>
       <c r="D24">
-        <v>-0.05697581038575091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02722997396464519</v>
+      </c>
+      <c r="E24">
+        <v>0.06192740262937002</v>
+      </c>
+      <c r="F24">
+        <v>0.001155920332141117</v>
+      </c>
+      <c r="G24">
+        <v>-0.0002416955371895771</v>
+      </c>
+      <c r="H24">
+        <v>0.004862079142066153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01731553630355564</v>
+        <v>0.0146439725392561</v>
       </c>
       <c r="C25">
-        <v>-0.05341828407957506</v>
+        <v>-0.06561595990016517</v>
       </c>
       <c r="D25">
-        <v>-0.04389948885545636</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03151523583703308</v>
+      </c>
+      <c r="E25">
+        <v>0.04379194984168534</v>
+      </c>
+      <c r="F25">
+        <v>0.001221392455297491</v>
+      </c>
+      <c r="G25">
+        <v>-0.01423733626729952</v>
+      </c>
+      <c r="H25">
+        <v>0.001537727530749391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00602710810208594</v>
+        <v>0.01703195711451906</v>
       </c>
       <c r="C26">
-        <v>-0.02035821804497865</v>
+        <v>-0.0338210427137571</v>
       </c>
       <c r="D26">
-        <v>-0.04974915680449533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03340639383915296</v>
+      </c>
+      <c r="E26">
+        <v>0.07845349874976447</v>
+      </c>
+      <c r="F26">
+        <v>0.05366726759333246</v>
+      </c>
+      <c r="G26">
+        <v>0.02161624848079797</v>
+      </c>
+      <c r="H26">
+        <v>-0.001909140546916298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.276636894066521</v>
+        <v>0.3125764451463266</v>
       </c>
       <c r="C28">
-        <v>0.173797251329163</v>
+        <v>0.09367017942867617</v>
       </c>
       <c r="D28">
-        <v>0.01106701768883874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.001776982273338726</v>
+      </c>
+      <c r="E28">
+        <v>-0.05101141240678103</v>
+      </c>
+      <c r="F28">
+        <v>0.05212477588293331</v>
+      </c>
+      <c r="G28">
+        <v>0.0582959110772731</v>
+      </c>
+      <c r="H28">
+        <v>0.03291436997289256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003744240694891362</v>
+        <v>0.001158175279352998</v>
       </c>
       <c r="C29">
-        <v>-0.02401087643245291</v>
+        <v>-0.04179874419969009</v>
       </c>
       <c r="D29">
-        <v>-0.0605217416669985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06244722989274502</v>
+      </c>
+      <c r="E29">
+        <v>0.1235664241249326</v>
+      </c>
+      <c r="F29">
+        <v>0.04612504474619215</v>
+      </c>
+      <c r="G29">
+        <v>0.004631908337894377</v>
+      </c>
+      <c r="H29">
+        <v>-0.0506485117667849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02626413695147628</v>
+        <v>0.0165625171246747</v>
       </c>
       <c r="C30">
-        <v>-0.0761891783694827</v>
+        <v>-0.1002928439398668</v>
       </c>
       <c r="D30">
-        <v>-0.1377992770809519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08955887202168399</v>
+      </c>
+      <c r="E30">
+        <v>0.1287350415704473</v>
+      </c>
+      <c r="F30">
+        <v>0.02417100504515239</v>
+      </c>
+      <c r="G30">
+        <v>0.003405817910776262</v>
+      </c>
+      <c r="H30">
+        <v>0.03095717388710469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0332796469013573</v>
+        <v>0.0107322801548933</v>
       </c>
       <c r="C31">
-        <v>-0.0844181152249151</v>
+        <v>-0.09549518000151347</v>
       </c>
       <c r="D31">
-        <v>-0.04671840664463706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02141595231022149</v>
+      </c>
+      <c r="E31">
+        <v>0.03440047516681275</v>
+      </c>
+      <c r="F31">
+        <v>0.02207337905184995</v>
+      </c>
+      <c r="G31">
+        <v>0.01966644067500218</v>
+      </c>
+      <c r="H31">
+        <v>0.009291706921558408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01582491159940878</v>
+        <v>0.01279686394167028</v>
       </c>
       <c r="C32">
-        <v>-0.0442217443452993</v>
+        <v>-0.05488835253178703</v>
       </c>
       <c r="D32">
-        <v>-0.07066637361804476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07544058619845773</v>
+      </c>
+      <c r="E32">
+        <v>0.03132214798058352</v>
+      </c>
+      <c r="F32">
+        <v>0.05726416246052767</v>
+      </c>
+      <c r="G32">
+        <v>0.04238465785777065</v>
+      </c>
+      <c r="H32">
+        <v>-0.01933950068804572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005773596594366912</v>
+        <v>0.006814343621358878</v>
       </c>
       <c r="C33">
-        <v>-0.04411394868681604</v>
+        <v>-0.06709799874767539</v>
       </c>
       <c r="D33">
-        <v>-0.08684125378749229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08010954023677894</v>
+      </c>
+      <c r="E33">
+        <v>0.09473087595924497</v>
+      </c>
+      <c r="F33">
+        <v>0.0366178517741313</v>
+      </c>
+      <c r="G33">
+        <v>0.004777372926084581</v>
+      </c>
+      <c r="H33">
+        <v>-0.005399681788190639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01317784043504276</v>
+        <v>0.008871995923581852</v>
       </c>
       <c r="C34">
-        <v>-0.06140717540077309</v>
+        <v>-0.06229522559695313</v>
       </c>
       <c r="D34">
-        <v>-0.05777473709768846</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01314413840134504</v>
+      </c>
+      <c r="E34">
+        <v>0.04477125131535992</v>
+      </c>
+      <c r="F34">
+        <v>-0.03251632537366616</v>
+      </c>
+      <c r="G34">
+        <v>0.001060087753762518</v>
+      </c>
+      <c r="H34">
+        <v>-0.008583788298056077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002409957814615617</v>
+        <v>0.004389921176548225</v>
       </c>
       <c r="C35">
-        <v>-0.00129319755901704</v>
+        <v>-0.01653762238689322</v>
       </c>
       <c r="D35">
-        <v>-0.001705902495940607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0275015909435941</v>
+      </c>
+      <c r="E35">
+        <v>0.03358409879178657</v>
+      </c>
+      <c r="F35">
+        <v>0.02703286020557707</v>
+      </c>
+      <c r="G35">
+        <v>-0.003793745989486105</v>
+      </c>
+      <c r="H35">
+        <v>-0.01257744261505172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006215243032659603</v>
+        <v>0.01119176172747091</v>
       </c>
       <c r="C36">
-        <v>-0.01183818254571708</v>
+        <v>-0.02614354142891584</v>
       </c>
       <c r="D36">
-        <v>-0.04787567105214253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04532962113583688</v>
+      </c>
+      <c r="E36">
+        <v>0.07107953805570466</v>
+      </c>
+      <c r="F36">
+        <v>0.05400662540115406</v>
+      </c>
+      <c r="G36">
+        <v>0.007335271629007356</v>
+      </c>
+      <c r="H36">
+        <v>-0.005919448909883246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002103588117691961</v>
+        <v>0.007676078816243786</v>
       </c>
       <c r="C38">
-        <v>-0.008938708089098591</v>
+        <v>-0.0297433648931378</v>
       </c>
       <c r="D38">
-        <v>-0.07654461331193874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07249247314626325</v>
+      </c>
+      <c r="E38">
+        <v>0.072773105888669</v>
+      </c>
+      <c r="F38">
+        <v>0.01834681884855497</v>
+      </c>
+      <c r="G38">
+        <v>0.02165801724723742</v>
+      </c>
+      <c r="H38">
+        <v>0.03950298949976856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01320377727223559</v>
+        <v>0.00752560489832598</v>
       </c>
       <c r="C39">
-        <v>-0.06198259587434455</v>
+        <v>-0.08899909548165366</v>
       </c>
       <c r="D39">
-        <v>-0.09698838702638829</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05808963438064497</v>
+      </c>
+      <c r="E39">
+        <v>0.1090777480802888</v>
+      </c>
+      <c r="F39">
+        <v>0.006333961114429733</v>
+      </c>
+      <c r="G39">
+        <v>-0.003435994393288467</v>
+      </c>
+      <c r="H39">
+        <v>-0.0004975181395440015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01584475082982392</v>
+        <v>0.01378228226635752</v>
       </c>
       <c r="C40">
-        <v>-0.02913386576881297</v>
+        <v>-0.04427950391453566</v>
       </c>
       <c r="D40">
-        <v>-0.1092569801883503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06437871179059305</v>
+      </c>
+      <c r="E40">
+        <v>0.08714815019506887</v>
+      </c>
+      <c r="F40">
+        <v>-0.0248526052165875</v>
+      </c>
+      <c r="G40">
+        <v>0.06706489139161557</v>
+      </c>
+      <c r="H40">
+        <v>-0.01577816310250735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00813400353525617</v>
+        <v>0.01691909493147436</v>
       </c>
       <c r="C41">
-        <v>-0.00761355926586608</v>
+        <v>-0.02520374044427877</v>
       </c>
       <c r="D41">
-        <v>-0.02185653010472313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03261872868950054</v>
+      </c>
+      <c r="E41">
+        <v>0.02502947110445906</v>
+      </c>
+      <c r="F41">
+        <v>0.01993334213977582</v>
+      </c>
+      <c r="G41">
+        <v>0.003602989937918117</v>
+      </c>
+      <c r="H41">
+        <v>0.005414020070177192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003557872131213467</v>
+        <v>0.008216116797934023</v>
       </c>
       <c r="C43">
-        <v>-0.004627127370220906</v>
+        <v>-0.01942973808857556</v>
       </c>
       <c r="D43">
-        <v>-0.03673613581186766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03927099459346969</v>
+      </c>
+      <c r="E43">
+        <v>0.04176925653575367</v>
+      </c>
+      <c r="F43">
+        <v>0.02482798411939978</v>
+      </c>
+      <c r="G43">
+        <v>0.0005641472065798522</v>
+      </c>
+      <c r="H43">
+        <v>0.0166033968230154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0187813223813658</v>
+        <v>0.008821026231841313</v>
       </c>
       <c r="C44">
-        <v>-0.03425352587435065</v>
+        <v>-0.0542172140564068</v>
       </c>
       <c r="D44">
-        <v>-0.08166014778059172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06985836246341588</v>
+      </c>
+      <c r="E44">
+        <v>0.09782876333991097</v>
+      </c>
+      <c r="F44">
+        <v>0.04054169505434054</v>
+      </c>
+      <c r="G44">
+        <v>0.03328729369201779</v>
+      </c>
+      <c r="H44">
+        <v>0.02279369967451982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002631044171919495</v>
+        <v>-0.0003840412068231921</v>
       </c>
       <c r="C46">
-        <v>-0.0326294836488164</v>
+        <v>-0.04379378700561504</v>
       </c>
       <c r="D46">
-        <v>-0.06430971145632455</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03864688910708609</v>
+      </c>
+      <c r="E46">
+        <v>0.0939525170541176</v>
+      </c>
+      <c r="F46">
+        <v>0.04293347298529336</v>
+      </c>
+      <c r="G46">
+        <v>0.01933428625050813</v>
+      </c>
+      <c r="H46">
+        <v>-0.002735571347612212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06907767081985745</v>
+        <v>0.03117618418419909</v>
       </c>
       <c r="C47">
-        <v>-0.1130687930656777</v>
+        <v>-0.1248986922050296</v>
       </c>
       <c r="D47">
-        <v>-0.0496775620256546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0181120788617983</v>
+      </c>
+      <c r="E47">
+        <v>0.007404676161914406</v>
+      </c>
+      <c r="F47">
+        <v>0.001982294871996305</v>
+      </c>
+      <c r="G47">
+        <v>-0.007674196156640624</v>
+      </c>
+      <c r="H47">
+        <v>0.01985499088827022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00438681712135071</v>
+        <v>0.01214925576003183</v>
       </c>
       <c r="C48">
-        <v>-0.01943617097900753</v>
+        <v>-0.03453950567780521</v>
       </c>
       <c r="D48">
-        <v>-0.04990767668325988</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04973959392945013</v>
+      </c>
+      <c r="E48">
+        <v>0.07451631224156276</v>
+      </c>
+      <c r="F48">
+        <v>0.06624952037248655</v>
+      </c>
+      <c r="G48">
+        <v>0.01531027904638912</v>
+      </c>
+      <c r="H48">
+        <v>0.006549798948207969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00346059392493304</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002981741729254271</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002828616623706578</v>
+      </c>
+      <c r="E49">
+        <v>-0.002313239166591877</v>
+      </c>
+      <c r="F49">
+        <v>-0.003968625669621189</v>
+      </c>
+      <c r="G49">
+        <v>-0.009358992104960278</v>
+      </c>
+      <c r="H49">
+        <v>-0.007906255840657584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03248765249519855</v>
+        <v>0.01501178667982847</v>
       </c>
       <c r="C50">
-        <v>-0.05888009263523387</v>
+        <v>-0.07642737551859879</v>
       </c>
       <c r="D50">
-        <v>-0.06337288441841366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0369648102978498</v>
+      </c>
+      <c r="E50">
+        <v>0.04259513045841237</v>
+      </c>
+      <c r="F50">
+        <v>0.01210945879504158</v>
+      </c>
+      <c r="G50">
+        <v>0.01173076655767415</v>
+      </c>
+      <c r="H50">
+        <v>0.01988582340301719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006075412368882406</v>
+        <v>-0.004096088988215461</v>
       </c>
       <c r="C51">
-        <v>-0.007672100369263077</v>
+        <v>-0.01975395525298815</v>
       </c>
       <c r="D51">
-        <v>-0.050503699035578</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.02170838294573779</v>
+      </c>
+      <c r="E51">
+        <v>0.06329239142280702</v>
+      </c>
+      <c r="F51">
+        <v>0.03396100951945016</v>
+      </c>
+      <c r="G51">
+        <v>0.03914909202930104</v>
+      </c>
+      <c r="H51">
+        <v>-0.001443022993006837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1050796080558559</v>
+        <v>0.06067683344569814</v>
       </c>
       <c r="C53">
-        <v>-0.1364708143423012</v>
+        <v>-0.1636905623078555</v>
       </c>
       <c r="D53">
-        <v>0.006708120184790542</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01942107296936352</v>
+      </c>
+      <c r="E53">
+        <v>-0.03264575980270243</v>
+      </c>
+      <c r="F53">
+        <v>0.03348035513140999</v>
+      </c>
+      <c r="G53">
+        <v>0.005715129104007901</v>
+      </c>
+      <c r="H53">
+        <v>0.01032765893092117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005225007211576024</v>
+        <v>0.01028221810534699</v>
       </c>
       <c r="C54">
-        <v>-0.02569697627675575</v>
+        <v>-0.04223518368848793</v>
       </c>
       <c r="D54">
-        <v>-0.08183484115529892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06173125206255913</v>
+      </c>
+      <c r="E54">
+        <v>0.06634065637423092</v>
+      </c>
+      <c r="F54">
+        <v>0.0179351476187166</v>
+      </c>
+      <c r="G54">
+        <v>0.019525775529696</v>
+      </c>
+      <c r="H54">
+        <v>0.02369869428348333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08699582118701428</v>
+        <v>0.04248801402839698</v>
       </c>
       <c r="C55">
-        <v>-0.1119781173751396</v>
+        <v>-0.1276417826805966</v>
       </c>
       <c r="D55">
-        <v>-0.0002864461428022738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04827856279059869</v>
+      </c>
+      <c r="E55">
+        <v>-0.01706839738475048</v>
+      </c>
+      <c r="F55">
+        <v>-0.002280776990355255</v>
+      </c>
+      <c r="G55">
+        <v>0.02282286856759981</v>
+      </c>
+      <c r="H55">
+        <v>0.005263758908148966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1275539850894012</v>
+        <v>0.06151198562238211</v>
       </c>
       <c r="C56">
-        <v>-0.1596245588341325</v>
+        <v>-0.192339568741001</v>
       </c>
       <c r="D56">
-        <v>-0.02122252171395667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0416676151336542</v>
+      </c>
+      <c r="E56">
+        <v>-0.04555079571050147</v>
+      </c>
+      <c r="F56">
+        <v>-0.005043004558403339</v>
+      </c>
+      <c r="G56">
+        <v>0.07085826039884625</v>
+      </c>
+      <c r="H56">
+        <v>0.01972411140835948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.007876458967475956</v>
+        <v>0.008092578633662103</v>
       </c>
       <c r="C58">
-        <v>-0.03154987715536178</v>
+        <v>-0.07700702169357025</v>
       </c>
       <c r="D58">
-        <v>-0.1766329666339116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2086842333371017</v>
+      </c>
+      <c r="E58">
+        <v>0.1412375945471254</v>
+      </c>
+      <c r="F58">
+        <v>0.1315471604295636</v>
+      </c>
+      <c r="G58">
+        <v>0.1559898902706296</v>
+      </c>
+      <c r="H58">
+        <v>0.09640660936739057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.202846953295654</v>
+        <v>0.260884153320695</v>
       </c>
       <c r="C59">
-        <v>0.1244650282453796</v>
+        <v>0.05700304014253346</v>
       </c>
       <c r="D59">
-        <v>-0.04451570810497985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0464039978045707</v>
+      </c>
+      <c r="E59">
+        <v>-0.001547960806885694</v>
+      </c>
+      <c r="F59">
+        <v>0.02733638074565821</v>
+      </c>
+      <c r="G59">
+        <v>0.0380231645541579</v>
+      </c>
+      <c r="H59">
+        <v>-0.02939825040906342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1757145355817337</v>
+        <v>0.1530523337277588</v>
       </c>
       <c r="C60">
-        <v>-0.1099051821356924</v>
+        <v>-0.167499117314217</v>
       </c>
       <c r="D60">
-        <v>-0.1261769759743008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01496565751289691</v>
+      </c>
+      <c r="E60">
+        <v>0.1081525109065461</v>
+      </c>
+      <c r="F60">
+        <v>-0.2007075613601871</v>
+      </c>
+      <c r="G60">
+        <v>-0.2278784140605503</v>
+      </c>
+      <c r="H60">
+        <v>-0.1643446063910421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02079176867852536</v>
+        <v>0.01332556906379303</v>
       </c>
       <c r="C61">
-        <v>-0.05940678503721103</v>
+        <v>-0.08169291960410577</v>
       </c>
       <c r="D61">
-        <v>-0.07111463878500977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0370641414778254</v>
+      </c>
+      <c r="E61">
+        <v>0.07758251123307093</v>
+      </c>
+      <c r="F61">
+        <v>-0.004151477525871903</v>
+      </c>
+      <c r="G61">
+        <v>-0.004694502086212745</v>
+      </c>
+      <c r="H61">
+        <v>-0.004784139774371507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-3.329004603462865e-05</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.000136400327688442</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0001561273644252896</v>
+      </c>
+      <c r="E62">
+        <v>-3.021749976416317e-06</v>
+      </c>
+      <c r="F62">
+        <v>0.0001875395968629949</v>
+      </c>
+      <c r="G62">
+        <v>-2.258706310178532e-05</v>
+      </c>
+      <c r="H62">
+        <v>-9.202779969488798e-05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01029949724231945</v>
+        <v>0.01615436048680082</v>
       </c>
       <c r="C63">
-        <v>-0.02816426131672715</v>
+        <v>-0.04671778955593709</v>
       </c>
       <c r="D63">
-        <v>-0.07021409589781695</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0296372009901753</v>
+      </c>
+      <c r="E63">
+        <v>0.09413225016271182</v>
+      </c>
+      <c r="F63">
+        <v>0.02733129594388402</v>
+      </c>
+      <c r="G63">
+        <v>-0.0001742430333776402</v>
+      </c>
+      <c r="H63">
+        <v>-6.314897048476147e-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04477177155767378</v>
+        <v>0.01537711619143467</v>
       </c>
       <c r="C64">
-        <v>-0.09591646248455975</v>
+        <v>-0.1031660183968378</v>
       </c>
       <c r="D64">
-        <v>-0.01517881706752973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004031662566188177</v>
+      </c>
+      <c r="E64">
+        <v>0.03404584374858265</v>
+      </c>
+      <c r="F64">
+        <v>0.02839175748189091</v>
+      </c>
+      <c r="G64">
+        <v>-0.03394783442682481</v>
+      </c>
+      <c r="H64">
+        <v>0.02953058734215564</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02616029881039327</v>
+        <v>0.02706663416777198</v>
       </c>
       <c r="C65">
-        <v>-0.01775619988825647</v>
+        <v>-0.04683301396565614</v>
       </c>
       <c r="D65">
-        <v>-0.08995567240093447</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08309855566613855</v>
+      </c>
+      <c r="E65">
+        <v>0.09116139301781605</v>
+      </c>
+      <c r="F65">
+        <v>-0.003606696235645176</v>
+      </c>
+      <c r="G65">
+        <v>-0.06693328814004318</v>
+      </c>
+      <c r="H65">
+        <v>0.007990158479824636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0209721076627987</v>
+        <v>0.008269854624040741</v>
       </c>
       <c r="C66">
-        <v>-0.07635029722846651</v>
+        <v>-0.1122654640029329</v>
       </c>
       <c r="D66">
-        <v>-0.1174682709761249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08290202717841279</v>
+      </c>
+      <c r="E66">
+        <v>0.1092768862442134</v>
+      </c>
+      <c r="F66">
+        <v>0.002211232920666729</v>
+      </c>
+      <c r="G66">
+        <v>0.01933613375266348</v>
+      </c>
+      <c r="H66">
+        <v>0.01106382835969302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0159599679428054</v>
+        <v>0.01678179036347303</v>
       </c>
       <c r="C67">
-        <v>-0.01750560938685947</v>
+        <v>-0.03542782647402312</v>
       </c>
       <c r="D67">
-        <v>-0.04525990649816158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03678702040504397</v>
+      </c>
+      <c r="E67">
+        <v>0.05371943733566079</v>
+      </c>
+      <c r="F67">
+        <v>-0.01235778799528193</v>
+      </c>
+      <c r="G67">
+        <v>0.0007384121272440346</v>
+      </c>
+      <c r="H67">
+        <v>0.02785779519956341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2145737604983745</v>
+        <v>0.2797858764597456</v>
       </c>
       <c r="C68">
-        <v>0.1360794744021935</v>
+        <v>0.06882252331268966</v>
       </c>
       <c r="D68">
-        <v>-0.02506095817671348</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03736945478242418</v>
+      </c>
+      <c r="E68">
+        <v>0.01816417233841807</v>
+      </c>
+      <c r="F68">
+        <v>0.0263789764630927</v>
+      </c>
+      <c r="G68">
+        <v>0.03963720060483506</v>
+      </c>
+      <c r="H68">
+        <v>0.005117568282701668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05033926070283336</v>
+        <v>0.01516604467290074</v>
       </c>
       <c r="C69">
-        <v>-0.118299440002146</v>
+        <v>-0.1109166132503187</v>
       </c>
       <c r="D69">
-        <v>-0.0633378665355579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01359454886560478</v>
+      </c>
+      <c r="E69">
+        <v>0.01681717558588715</v>
+      </c>
+      <c r="F69">
+        <v>-0.009584174632414616</v>
+      </c>
+      <c r="G69">
+        <v>-0.005303268834041103</v>
+      </c>
+      <c r="H69">
+        <v>-0.001260503493093934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.230059479276678</v>
+        <v>0.2701748157801882</v>
       </c>
       <c r="C71">
-        <v>0.1580804485527924</v>
+        <v>0.08410743517430039</v>
       </c>
       <c r="D71">
-        <v>-0.01612620010742077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01486853049505764</v>
+      </c>
+      <c r="E71">
+        <v>-0.003840742251772591</v>
+      </c>
+      <c r="F71">
+        <v>0.01614896168738913</v>
+      </c>
+      <c r="G71">
+        <v>0.04428170031631021</v>
+      </c>
+      <c r="H71">
+        <v>0.02277547705022132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09849137550181521</v>
+        <v>0.0654924139064148</v>
       </c>
       <c r="C72">
-        <v>-0.07944466249344287</v>
+        <v>-0.1240304089006946</v>
       </c>
       <c r="D72">
-        <v>-0.09691160432542061</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02931190697793771</v>
+      </c>
+      <c r="E72">
+        <v>0.08573481078746714</v>
+      </c>
+      <c r="F72">
+        <v>-0.01674755713648981</v>
+      </c>
+      <c r="G72">
+        <v>-0.04163045903000687</v>
+      </c>
+      <c r="H72">
+        <v>-0.007732148538910798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1731056476468803</v>
+        <v>0.1590067425517796</v>
       </c>
       <c r="C73">
-        <v>-0.08925639549896562</v>
+        <v>-0.1707939280000079</v>
       </c>
       <c r="D73">
-        <v>-0.1841312078472973</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.005006847334772067</v>
+      </c>
+      <c r="E73">
+        <v>0.2466100540058477</v>
+      </c>
+      <c r="F73">
+        <v>-0.3230129179736106</v>
+      </c>
+      <c r="G73">
+        <v>-0.3910424794549743</v>
+      </c>
+      <c r="H73">
+        <v>-0.1876520795710682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09981300692912805</v>
+        <v>0.05192200522045109</v>
       </c>
       <c r="C74">
-        <v>-0.1212066162528887</v>
+        <v>-0.1397061089500652</v>
       </c>
       <c r="D74">
-        <v>0.05374290206814204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04585822105975428</v>
+      </c>
+      <c r="E74">
+        <v>-0.04581636227062817</v>
+      </c>
+      <c r="F74">
+        <v>0.03081325836379864</v>
+      </c>
+      <c r="G74">
+        <v>0.004259012656069696</v>
+      </c>
+      <c r="H74">
+        <v>0.005843340295676972</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2120576656328548</v>
+        <v>0.09892040575953011</v>
       </c>
       <c r="C75">
-        <v>-0.2124331372425384</v>
+        <v>-0.2583104511895045</v>
       </c>
       <c r="D75">
-        <v>0.03057193016846662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09247364639148133</v>
+      </c>
+      <c r="E75">
+        <v>-0.1351790098804586</v>
+      </c>
+      <c r="F75">
+        <v>-0.05795054307718708</v>
+      </c>
+      <c r="G75">
+        <v>0.1095155749094615</v>
+      </c>
+      <c r="H75">
+        <v>0.1104228405423333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1304455901126908</v>
+        <v>0.06278063661652472</v>
       </c>
       <c r="C76">
-        <v>-0.1421681578784745</v>
+        <v>-0.1755917561599269</v>
       </c>
       <c r="D76">
-        <v>-0.01025107150135191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04013105826119018</v>
+      </c>
+      <c r="E76">
+        <v>-0.0484996440318983</v>
+      </c>
+      <c r="F76">
+        <v>-0.00879104264370769</v>
+      </c>
+      <c r="G76">
+        <v>0.0443022234034551</v>
+      </c>
+      <c r="H76">
+        <v>0.02304791271057834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004173762488314521</v>
+        <v>-0.002541711741991516</v>
       </c>
       <c r="C77">
-        <v>-0.08541240998632892</v>
+        <v>-0.1289152090101962</v>
       </c>
       <c r="D77">
-        <v>-0.2107962649525418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7055502212788672</v>
+      </c>
+      <c r="E77">
+        <v>-0.6147677591137173</v>
+      </c>
+      <c r="F77">
+        <v>-0.1428699073364658</v>
+      </c>
+      <c r="G77">
+        <v>-0.1752819187158818</v>
+      </c>
+      <c r="H77">
+        <v>-0.02026328123246597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03155362618151433</v>
+        <v>0.02244837120922363</v>
       </c>
       <c r="C78">
-        <v>-0.08259941131014351</v>
+        <v>-0.09868766288151937</v>
       </c>
       <c r="D78">
-        <v>-0.1357582636197624</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05441250474489644</v>
+      </c>
+      <c r="E78">
+        <v>0.1054164648304092</v>
+      </c>
+      <c r="F78">
+        <v>0.04701364114748503</v>
+      </c>
+      <c r="G78">
+        <v>0.1092764182879562</v>
+      </c>
+      <c r="H78">
+        <v>-0.02532438337430957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1112663969668457</v>
+        <v>0.05259995145701728</v>
       </c>
       <c r="C79">
-        <v>-0.2197115856958962</v>
+        <v>-0.2205619547611939</v>
       </c>
       <c r="D79">
-        <v>0.6604970986635176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1478582013832472</v>
+      </c>
+      <c r="E79">
+        <v>-0.1596240377437577</v>
+      </c>
+      <c r="F79">
+        <v>0.7621538171790448</v>
+      </c>
+      <c r="G79">
+        <v>-0.4432208749745447</v>
+      </c>
+      <c r="H79">
+        <v>-0.07159827919679639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.007804503297759437</v>
+        <v>0.009339298546752381</v>
       </c>
       <c r="C80">
-        <v>-0.04415050473092519</v>
+        <v>-0.04582868698828275</v>
       </c>
       <c r="D80">
-        <v>-0.02898945475840347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.003219692256711408</v>
+      </c>
+      <c r="E80">
+        <v>0.06513456700856034</v>
+      </c>
+      <c r="F80">
+        <v>-0.01034443974460615</v>
+      </c>
+      <c r="G80">
+        <v>0.002829693673458226</v>
+      </c>
+      <c r="H80">
+        <v>-0.08314327392673392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09927914794261962</v>
+        <v>0.03361093297175838</v>
       </c>
       <c r="C81">
-        <v>-0.140008872060098</v>
+        <v>-0.1577697535656835</v>
       </c>
       <c r="D81">
-        <v>0.07239793234280774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06149341117751087</v>
+      </c>
+      <c r="E81">
+        <v>-0.07089318685741289</v>
+      </c>
+      <c r="F81">
+        <v>0.04986686780541044</v>
+      </c>
+      <c r="G81">
+        <v>0.07406857985147257</v>
+      </c>
+      <c r="H81">
+        <v>0.007199923134217096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2062293661742714</v>
+        <v>0.07983465535883882</v>
       </c>
       <c r="C82">
-        <v>-0.303431558366324</v>
+        <v>-0.2894284027811065</v>
       </c>
       <c r="D82">
-        <v>0.05485453764867729</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.18156668605142</v>
+      </c>
+      <c r="E82">
+        <v>-0.1588023952454505</v>
+      </c>
+      <c r="F82">
+        <v>-0.1174287904094551</v>
+      </c>
+      <c r="G82">
+        <v>0.1759002983216239</v>
+      </c>
+      <c r="H82">
+        <v>0.03521520828334609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01244754006201172</v>
+        <v>-0.006599790713029918</v>
       </c>
       <c r="C83">
-        <v>-0.05037886268191206</v>
+        <v>-0.01749106623157298</v>
       </c>
       <c r="D83">
-        <v>0.003815755874559539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02997196066360864</v>
+      </c>
+      <c r="E83">
+        <v>-0.09710202831967468</v>
+      </c>
+      <c r="F83">
+        <v>0.1013464512202689</v>
+      </c>
+      <c r="G83">
+        <v>0.3625394137057639</v>
+      </c>
+      <c r="H83">
+        <v>-0.8632358683696535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001290017999793892</v>
+        <v>-0.003036434390456224</v>
       </c>
       <c r="C84">
-        <v>-0.004521006577712842</v>
+        <v>-0.01832385108601778</v>
       </c>
       <c r="D84">
-        <v>-0.0102118494375986</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03689444448559007</v>
+      </c>
+      <c r="E84">
+        <v>0.03653852545313944</v>
+      </c>
+      <c r="F84">
+        <v>0.03756390038078816</v>
+      </c>
+      <c r="G84">
+        <v>0.04200570553138547</v>
+      </c>
+      <c r="H84">
+        <v>0.06033274768341545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1290292495692693</v>
+        <v>0.05657410166247157</v>
       </c>
       <c r="C85">
-        <v>-0.1546090082695049</v>
+        <v>-0.1777110582294869</v>
       </c>
       <c r="D85">
-        <v>0.08676299055690206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1159762879740328</v>
+      </c>
+      <c r="E85">
+        <v>-0.05312654480619721</v>
+      </c>
+      <c r="F85">
+        <v>0.04243961413192547</v>
+      </c>
+      <c r="G85">
+        <v>0.01495050344302043</v>
+      </c>
+      <c r="H85">
+        <v>0.02803039134166754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02411384227362243</v>
+        <v>0.01610409384202802</v>
       </c>
       <c r="C86">
-        <v>-0.01021372820627199</v>
+        <v>-0.04224239117575211</v>
       </c>
       <c r="D86">
-        <v>-0.07598131869169503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08914529069288456</v>
+      </c>
+      <c r="E86">
+        <v>0.02661686227587929</v>
+      </c>
+      <c r="F86">
+        <v>0.04753857066609495</v>
+      </c>
+      <c r="G86">
+        <v>0.04021505916105481</v>
+      </c>
+      <c r="H86">
+        <v>0.04454168322745228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02247874690691758</v>
+        <v>0.01179178166358704</v>
       </c>
       <c r="C87">
-        <v>-0.04125240590242897</v>
+        <v>-0.06925456539127982</v>
       </c>
       <c r="D87">
-        <v>-0.1148156765846403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1042304004603903</v>
+      </c>
+      <c r="E87">
+        <v>0.08636947110703216</v>
+      </c>
+      <c r="F87">
+        <v>0.05013701172234943</v>
+      </c>
+      <c r="G87">
+        <v>0.07466068685479985</v>
+      </c>
+      <c r="H87">
+        <v>0.01418806640110698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04705197931424629</v>
+        <v>0.03431952939793077</v>
       </c>
       <c r="C88">
-        <v>-0.05086409921485691</v>
+        <v>-0.07279395127041677</v>
       </c>
       <c r="D88">
-        <v>-0.007099607681864882</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008565605958599338</v>
+      </c>
+      <c r="E88">
+        <v>0.03288461690014488</v>
+      </c>
+      <c r="F88">
+        <v>0.0143549126995013</v>
+      </c>
+      <c r="G88">
+        <v>-0.01803287751728294</v>
+      </c>
+      <c r="H88">
+        <v>0.002253003754809178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3452319060535917</v>
+        <v>0.3976814213959554</v>
       </c>
       <c r="C89">
-        <v>0.2946835803357374</v>
+        <v>0.1634922173577635</v>
       </c>
       <c r="D89">
-        <v>-0.0146632342087859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05039055809926316</v>
+      </c>
+      <c r="E89">
+        <v>-0.005691023505169454</v>
+      </c>
+      <c r="F89">
+        <v>0.07364975813721951</v>
+      </c>
+      <c r="G89">
+        <v>0.07416891858603121</v>
+      </c>
+      <c r="H89">
+        <v>-0.06239882143206147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2768626355854716</v>
+        <v>0.3224482342347836</v>
       </c>
       <c r="C90">
-        <v>0.2143875006922406</v>
+        <v>0.1056866945480004</v>
       </c>
       <c r="D90">
-        <v>-0.06115984344748036</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03473855415791343</v>
+      </c>
+      <c r="E90">
+        <v>0.01480198448665016</v>
+      </c>
+      <c r="F90">
+        <v>-0.003541432794690649</v>
+      </c>
+      <c r="G90">
+        <v>0.05835352222268946</v>
+      </c>
+      <c r="H90">
+        <v>0.01064271685560953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1351721099300868</v>
+        <v>0.06475662412487813</v>
       </c>
       <c r="C91">
-        <v>-0.197749720863593</v>
+        <v>-0.2006111247416326</v>
       </c>
       <c r="D91">
-        <v>0.1016286837158032</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08186544339891777</v>
+      </c>
+      <c r="E91">
+        <v>-0.1138204927200699</v>
+      </c>
+      <c r="F91">
+        <v>0.05263735587324737</v>
+      </c>
+      <c r="G91">
+        <v>0.0258742572634282</v>
+      </c>
+      <c r="H91">
+        <v>-0.01103800112833942</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2613890352549341</v>
+        <v>0.3347451325346835</v>
       </c>
       <c r="C92">
-        <v>0.2407313038066375</v>
+        <v>0.144180888036666</v>
       </c>
       <c r="D92">
-        <v>0.03512727997292196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04433911673430136</v>
+      </c>
+      <c r="E92">
+        <v>-0.04750680213122897</v>
+      </c>
+      <c r="F92">
+        <v>0.04690315987819521</v>
+      </c>
+      <c r="G92">
+        <v>0.001271080871044393</v>
+      </c>
+      <c r="H92">
+        <v>0.1197637694151948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2950021288649711</v>
+        <v>0.3300996710978111</v>
       </c>
       <c r="C93">
-        <v>0.2234205861320957</v>
+        <v>0.1206867789952452</v>
       </c>
       <c r="D93">
-        <v>0.02552398218420071</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02345437977188611</v>
+      </c>
+      <c r="E93">
+        <v>-0.006252256949126227</v>
+      </c>
+      <c r="F93">
+        <v>0.01112047909572342</v>
+      </c>
+      <c r="G93">
+        <v>-0.02103673649192487</v>
+      </c>
+      <c r="H93">
+        <v>0.03089569540553487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2484165844138134</v>
+        <v>0.1217565340049753</v>
       </c>
       <c r="C94">
-        <v>-0.2791558098520997</v>
+        <v>-0.3125642195722196</v>
       </c>
       <c r="D94">
-        <v>0.113664375061583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.281349719623296</v>
+      </c>
+      <c r="E94">
+        <v>-0.2125363213707496</v>
+      </c>
+      <c r="F94">
+        <v>-0.1657160893263651</v>
+      </c>
+      <c r="G94">
+        <v>0.2677360086448067</v>
+      </c>
+      <c r="H94">
+        <v>0.1259742689326118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0004241955794664417</v>
+        <v>0.01445757327667514</v>
       </c>
       <c r="C95">
-        <v>-0.05212833737896481</v>
+        <v>-0.07572501447371946</v>
       </c>
       <c r="D95">
-        <v>-0.09791716270302013</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1574468638146052</v>
+      </c>
+      <c r="E95">
+        <v>-0.03395871316232112</v>
+      </c>
+      <c r="F95">
+        <v>0.00422854396095511</v>
+      </c>
+      <c r="G95">
+        <v>-0.04589652551560407</v>
+      </c>
+      <c r="H95">
+        <v>0.0464585596874516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002232358203421557</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0008351027838570039</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0007145902379799186</v>
+      </c>
+      <c r="E97">
+        <v>0.003548865997328255</v>
+      </c>
+      <c r="F97">
+        <v>0.0002782909824673918</v>
+      </c>
+      <c r="G97">
+        <v>0.0001120898231422896</v>
+      </c>
+      <c r="H97">
+        <v>0.005251073339674701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1473881466302469</v>
+        <v>0.1342176127330257</v>
       </c>
       <c r="C98">
-        <v>-0.1022705336411387</v>
+        <v>-0.1642862215214016</v>
       </c>
       <c r="D98">
-        <v>-0.1312904258225776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01873924638283608</v>
+      </c>
+      <c r="E98">
+        <v>0.1545835561422882</v>
+      </c>
+      <c r="F98">
+        <v>-0.2669084151385926</v>
+      </c>
+      <c r="G98">
+        <v>-0.2930643466987953</v>
+      </c>
+      <c r="H98">
+        <v>-0.1616568599416915</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002899887320699683</v>
+        <v>0.001252228251247898</v>
       </c>
       <c r="C101">
-        <v>-0.02315551622115735</v>
+        <v>-0.04089390413248176</v>
       </c>
       <c r="D101">
-        <v>-0.06041285339849599</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06227871531928073</v>
+      </c>
+      <c r="E101">
+        <v>0.1221709146414378</v>
+      </c>
+      <c r="F101">
+        <v>0.04547971216864834</v>
+      </c>
+      <c r="G101">
+        <v>0.004817177885214765</v>
+      </c>
+      <c r="H101">
+        <v>-0.05013975243242833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08541462672229279</v>
+        <v>0.0200381561081588</v>
       </c>
       <c r="C102">
-        <v>-0.1604073986070719</v>
+        <v>-0.1320888366655396</v>
       </c>
       <c r="D102">
-        <v>-0.00505562106218163</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.07299656836054197</v>
+      </c>
+      <c r="E102">
+        <v>-0.07689083779504045</v>
+      </c>
+      <c r="F102">
+        <v>-0.07442210968061998</v>
+      </c>
+      <c r="G102">
+        <v>0.04021185512170944</v>
+      </c>
+      <c r="H102">
+        <v>-0.01051334500199099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
